--- a/db/MYSQL作业下.xlsx
+++ b/db/MYSQL作业下.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\study\tech_sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git011704\saisk\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C543F79-0C9B-4BBD-85A7-3D9069CCE8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8EAA4-D1D3-471F-94C8-1DE9F51C29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作业" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="チューニング" sheetId="6" r:id="rId4"/>
     <sheet name="トランザクション" sheetId="7" r:id="rId5"/>
     <sheet name="左外部結合leftjoin" sheetId="9" r:id="rId6"/>
-    <sheet name="多行转一行" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="多行转一行" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -204,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="387">
   <si>
     <t>TABLE:</t>
   </si>
@@ -904,6 +905,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不好的写法</t>
@@ -1264,13 +1266,2188 @@
   <si>
     <t>笛卡尔积（没有结合条件）</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>个人番号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aitama</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokyo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hou</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_nm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sencond_nm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康保険</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_houkenn</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>neikin</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>年金</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_kojin</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索出tokyo地区的人的姓名，交的健康保险和年金的金额。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t_kojin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>first_nm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sencond_nm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> InnoDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> CHARSET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> utf8mb3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'个人番号'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t_houkenn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> InnoDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> CHARSET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> utf8mb3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'健康保険'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t_neikin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> InnoDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> CHARSET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> utf8mb3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'年金'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>first_nm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sencond_nm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">money </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'h_money'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    t_kojin k</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> t_houkenn h </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    t_kojin k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>inner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> t_houkenn h  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'tokyo'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    t_kojin k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> t_houkenn h  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k_id</t>
+    </r>
+  </si>
+  <si>
+    <t>检索出tokyo地区的人的姓名，交的健康保险</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1280,12 +3457,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1323,12 +3502,53 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF7F878F"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0080FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF2800"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1501,7 +3721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1550,6 +3770,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,8 +4367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3266,7 +5506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4334,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECFB74C-6038-461A-9482-F50723D31B14}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5029,6 +7269,420 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE380A5-98A7-4062-B24D-FE1BBC46887F}">
+  <dimension ref="B2:F74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30">
+      <c r="C3" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="C4" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="C5" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="C7" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="C8" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="36">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="C16" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="36">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="36">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="54"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="54"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="54"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="54"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="54"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="54"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="54"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="54"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/db/MYSQL作业下.xlsx
+++ b/db/MYSQL作业下.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git011704\saisk\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8EAA4-D1D3-471F-94C8-1DE9F51C29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2676828-C755-447A-A16A-82DC48D99A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="チューニング" sheetId="6" r:id="rId4"/>
     <sheet name="トランザクション" sheetId="7" r:id="rId5"/>
     <sheet name="左外部結合leftjoin" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="左外部結合leftjoindd" sheetId="10" r:id="rId7"/>
     <sheet name="多行转一行" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -3721,7 +3721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3772,12 +3772,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7273,7 +7269,7 @@
   <dimension ref="B2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7313,7 +7309,7 @@
       <c r="E4" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="36" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7327,7 +7323,7 @@
       <c r="E5" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="36" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7341,7 +7337,7 @@
       <c r="E6" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="36" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7355,28 +7351,27 @@
       <c r="E7" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="36" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="46" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="44"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="43" t="s">
@@ -7390,7 +7385,7 @@
       <c r="C11" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="46" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7448,226 +7443,226 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="48" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="48" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="48" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="48" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="48" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="49" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="54"/>
+      <c r="B31" s="50"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="47" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="48" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="48" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="48" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="49" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="54"/>
+      <c r="B37" s="50"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="47" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="48" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="48" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="48" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="49" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="54"/>
+      <c r="B43" s="50"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="54"/>
+      <c r="B44" s="50"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="48" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="48" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="48" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="47" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="48" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="48" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="47" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="48" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="54"/>
+      <c r="B54" s="50"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="48" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="48" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="48" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="47" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="48" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="54"/>
+      <c r="B61" s="50"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="47" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="54"/>
+      <c r="B63" s="50"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="54"/>
+      <c r="B64" s="50"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="48" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="48" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="48" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="47" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="48" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="47" t="s">
         <v>384</v>
       </c>
     </row>

--- a/db/MYSQL作业下.xlsx
+++ b/db/MYSQL作业下.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git011704\saisk\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2676828-C755-447A-A16A-82DC48D99A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A427A54-CB70-41BE-91E3-C6716DA5B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作业" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="チューニング" sheetId="6" r:id="rId4"/>
     <sheet name="トランザクション" sheetId="7" r:id="rId5"/>
     <sheet name="左外部結合leftjoin" sheetId="9" r:id="rId6"/>
-    <sheet name="左外部結合leftjoindd" sheetId="10" r:id="rId7"/>
-    <sheet name="多行转一行" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="多行转一行" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -205,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="348">
   <si>
     <t>TABLE:</t>
   </si>
@@ -1267,2187 +1266,12 @@
     <t>笛卡尔积（没有结合条件）</t>
     <phoneticPr fontId="7"/>
   </si>
-  <si>
-    <t>个人番号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aitama</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokyo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>k00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>hou</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_id</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_nm</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sencond_nm</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康保険</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_houkenn</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>neikin</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>年金</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_kojin</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索出tokyo地区的人的姓名，交的健康保险和年金的金额。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CREATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t_kojin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>k_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>first_nm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sencond_nm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>area</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>char</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEFAULT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PRIMARY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>k_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ENGINE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> InnoDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEFAULT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> CHARSET </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> utf8mb3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'个人番号'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CREATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t_houkenn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>money</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>decimal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ENGINE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> InnoDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEFAULT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> CHARSET </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> utf8mb3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'健康保険'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CREATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t_neikin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ENGINE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> InnoDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEFAULT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> CHARSET </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> utf8mb3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'年金'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>first_nm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sencond_nm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">money </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'h_money'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    t_kojin k</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> t_houkenn h </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">k_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>k_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    t_kojin k </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>inner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> t_houkenn h  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">k_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>k_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>area</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'tokyo'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    t_kojin k </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> t_houkenn h  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">k_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>k_id</t>
-    </r>
-  </si>
-  <si>
-    <t>检索出tokyo地区的人的姓名，交的健康保险</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3509,45 +1333,6 @@
       <sz val="12"/>
       <color rgb="FF7F878F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0080FF"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF2800"/>
-      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -3721,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3770,22 +1555,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4363,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6570,7 +4339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECFB74C-6038-461A-9482-F50723D31B14}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26:C30"/>
     </sheetView>
   </sheetViews>
@@ -7265,419 +5034,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE380A5-98A7-4062-B24D-FE1BBC46887F}">
-  <dimension ref="B2:F74"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="30">
-      <c r="C3" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="C4" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="C5" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="C6" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="C7" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="C8" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="C11" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="C13" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="36">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="C16" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" s="36">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="C18" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" s="36">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="43" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="47" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="48" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="48" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="48" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="48" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="50"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="47" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="48" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="48" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="49" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="50"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="48" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="48" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="50"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="50"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="48" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="48" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="48" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="48" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="50"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="48" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="48" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="48" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="50"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="50"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="50"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="48" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="48" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="43" t="s">
-        <v>386</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/db/MYSQL作业下.xlsx
+++ b/db/MYSQL作业下.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git011704\saisk\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A427A54-CB70-41BE-91E3-C6716DA5B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D7A5F-F8C9-480E-B7CF-5F5359F85820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="350">
   <si>
     <t>TABLE:</t>
   </si>
@@ -501,9 +501,6 @@
   </si>
   <si>
     <t>作业07</t>
-  </si>
-  <si>
-    <t>检索员工名称和该员式所对应的リーダー名</t>
   </si>
   <si>
     <t>作业08</t>
@@ -1264,6 +1261,18 @@
   </si>
   <si>
     <t>笛卡尔积（没有结合条件）</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>deptno</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>检索员工名称和该员工所对应的リーダー名</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>t_emp</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -2132,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2274,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>32</v>
@@ -2339,7 +2348,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>48</v>
@@ -2620,28 +2629,28 @@
         <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2676,62 +2685,62 @@
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2739,32 +2748,32 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="17" customFormat="1">
@@ -2777,57 +2786,57 @@
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="17" customFormat="1">
@@ -2840,57 +2849,57 @@
     </row>
     <row r="38" spans="1:2">
       <c r="B38" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2906,7 +2915,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="B65" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2916,27 +2925,27 @@
     </row>
     <row r="67" spans="1:2">
       <c r="B67" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="B70" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="B71" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="17" customFormat="1">
@@ -2949,37 +2958,37 @@
     </row>
     <row r="75" spans="1:2">
       <c r="B75" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="B78" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="17" customFormat="1">
@@ -2992,147 +3001,147 @@
     </row>
     <row r="94" spans="1:3">
       <c r="B94" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="C95" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="C96" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="C98" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="C99" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="C100" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="C101" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="C102" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="C103" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="C105" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="C106" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="C108" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="C109" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="C112" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="C113" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="C114" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="C115" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="C116" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="C117" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="C118" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="C119" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="C120" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="C121" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="C122" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="C123" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="17" customFormat="1">
@@ -3140,113 +3149,113 @@
         <v>98</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="B153" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="B154" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="B155" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="B156" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="B157" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="B158" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="B169" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="B171" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3256,7 +3265,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="B173" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3283,129 +3292,129 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" t="s">
         <v>199</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>200</v>
-      </c>
-      <c r="G23" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
         <v>202</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>203</v>
-      </c>
-      <c r="G24" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="C30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="C32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3435,22 +3444,22 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -3460,25 +3469,25 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -3488,124 +3497,124 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I39" s="13"/>
       <c r="K39" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I40" s="13"/>
       <c r="K40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I41" s="13"/>
       <c r="K41" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I42" s="13"/>
       <c r="K42" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -3617,55 +3626,55 @@
     <row r="45" spans="2:17">
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="13"/>
       <c r="K45" s="2"/>
       <c r="L45" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M45" s="4"/>
       <c r="O45" s="2"/>
       <c r="P45" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="2:17">
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I46" s="13"/>
       <c r="K46" s="5"/>
       <c r="L46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M46" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -3679,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I47" s="13"/>
       <c r="K47" s="7">
@@ -3693,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="2:17">
@@ -3707,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I48" s="13"/>
       <c r="K48" s="7">
@@ -3721,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -3736,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I49" s="13"/>
       <c r="K49" s="7">
@@ -3750,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="2:17">
@@ -3764,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I50" s="13"/>
       <c r="K50" s="7">
@@ -3778,7 +3787,7 @@
         <v>4</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -3792,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I51" s="13"/>
       <c r="K51" s="7">
@@ -3806,7 +3815,7 @@
         <v>5</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -3820,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I52" s="13"/>
       <c r="K52" s="7">
@@ -3834,35 +3843,35 @@
         <v>6</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="2:17">
       <c r="B53" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I53" s="13"/>
       <c r="K53" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="9" t="s">
         <v>70</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="2:17">
@@ -3878,7 +3887,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I54" s="13"/>
       <c r="K54" s="14">
@@ -3893,7 +3902,7 @@
       </c>
       <c r="P54" s="11"/>
       <c r="Q54" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -3907,13 +3916,13 @@
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="2:17">
       <c r="B59" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I59" s="13"/>
     </row>
@@ -3936,397 +3945,397 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:5">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="E22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:5">
       <c r="E23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="4:5">
       <c r="E25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="E26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="E28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="E29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="E31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="4:5">
       <c r="E32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="5:6">
       <c r="E41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="5:6">
       <c r="E43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="5:6">
       <c r="E45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="5:6">
       <c r="E46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="5:6">
       <c r="F47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="5:6">
       <c r="E48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="E50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="4:6">
       <c r="E51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="4:6">
       <c r="E52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="4:6">
       <c r="E53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="E55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="4:6">
       <c r="D57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="E58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="F59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="4:6">
       <c r="E60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="F61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="4:6">
       <c r="F62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="E63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="E64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="4:7">
       <c r="D65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="4:7">
       <c r="E66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="4:7">
       <c r="E67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="4:7">
       <c r="F68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="4:7">
       <c r="G69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="4:7">
       <c r="F70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="4:7">
       <c r="G71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="4:7">
       <c r="G72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="4:7">
       <c r="F73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="4:7">
       <c r="E74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="4:7">
       <c r="E75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="4:7">
       <c r="F76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="4:7">
       <c r="G77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="4:7">
       <c r="F78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="4:7">
       <c r="G79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="4:7">
       <c r="G80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="F81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="E82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="E83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="F84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="G85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="F86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="G87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="G88" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="F89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="E90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="D92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="C95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4352,10 +4361,10 @@
     <row r="2" spans="1:16" ht="15.5" thickBot="1"/>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
         <v>297</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="28"/>
@@ -4370,142 +4379,142 @@
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>299</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>300</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="33"/>
       <c r="L4" s="32"/>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J5" s="33"/>
       <c r="L5" s="32"/>
       <c r="M5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J6" s="33"/>
       <c r="L6" s="32"/>
       <c r="M6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>306</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>307</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J7" s="33"/>
       <c r="L7" s="32"/>
       <c r="M7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>309</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>310</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J8" s="33"/>
       <c r="L8" s="32"/>
       <c r="M8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P8" s="33"/>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>311</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>312</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J9" s="33"/>
       <c r="L9" s="32"/>
       <c r="M9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:16">
       <c r="F10" s="32"/>
       <c r="G10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J10" s="33"/>
       <c r="L10" s="32"/>
       <c r="M10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:16">
       <c r="F11" s="32"/>
       <c r="G11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J11" s="33"/>
       <c r="L11" s="32"/>
       <c r="M11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P11" s="33"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
         <v>318</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
       </c>
       <c r="F12" s="32"/>
       <c r="J12" s="33"/>
@@ -4514,23 +4523,23 @@
     </row>
     <row r="13" spans="1:16" ht="30">
       <c r="B13" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J13" s="33"/>
       <c r="L13" s="32"/>
@@ -4538,142 +4547,142 @@
         <v>42</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P13" s="33"/>
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>321</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>322</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="H14" s="35" t="s">
-        <v>322</v>
-      </c>
       <c r="I14" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J14" s="33"/>
       <c r="L14" s="32"/>
       <c r="M14" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="N14" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="N14" s="35" t="s">
-        <v>322</v>
-      </c>
       <c r="O14" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P14" s="33"/>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>323</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>324</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="H15" s="35" t="s">
-        <v>324</v>
-      </c>
       <c r="I15" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J15" s="33"/>
       <c r="L15" s="32"/>
       <c r="M15" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="N15" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="N15" s="35" t="s">
-        <v>324</v>
-      </c>
       <c r="O15" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>325</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>326</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="35" t="s">
-        <v>326</v>
-      </c>
       <c r="I16" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J16" s="33"/>
       <c r="L16" s="32"/>
       <c r="M16" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="N16" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="N16" s="35" t="s">
-        <v>326</v>
-      </c>
       <c r="O16" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="1:17">
       <c r="B17" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>327</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>328</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>328</v>
-      </c>
       <c r="I17" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J17" s="33"/>
       <c r="L17" s="32"/>
       <c r="M17" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="N17" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="N17" s="35" t="s">
-        <v>328</v>
-      </c>
       <c r="O17" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P17" s="33"/>
     </row>
@@ -4685,13 +4694,13 @@
       <c r="J18" s="39"/>
       <c r="L18" s="32"/>
       <c r="M18" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N18" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P18" s="33"/>
     </row>
@@ -4704,18 +4713,18 @@
     </row>
     <row r="20" spans="1:17" ht="15.5" thickBot="1">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.5" thickBot="1">
       <c r="B21" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="28"/>
@@ -4726,7 +4735,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="B22" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="36">
         <v>1000</v>
@@ -4739,164 +4748,164 @@
       <c r="J22" s="29"/>
       <c r="L22" s="32"/>
       <c r="M22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17">
       <c r="B23" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" s="36">
         <v>3000</v>
       </c>
       <c r="E23" s="32"/>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" s="33"/>
       <c r="L23" s="32"/>
       <c r="M23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17">
       <c r="E24" s="32"/>
       <c r="G24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J24" s="33"/>
       <c r="L24" s="32"/>
       <c r="M24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17">
       <c r="E25" s="32"/>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J25" s="33"/>
       <c r="L25" s="32"/>
       <c r="M25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" s="32"/>
       <c r="G26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J26" s="33"/>
       <c r="L26" s="32"/>
       <c r="M26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E27" s="32"/>
       <c r="G27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J27" s="33"/>
       <c r="L27" s="32"/>
       <c r="M27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C28" s="36">
         <v>2100</v>
       </c>
       <c r="E28" s="32"/>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J28" s="33"/>
       <c r="L28" s="32"/>
       <c r="M28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17">
       <c r="B29" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29" s="36">
         <v>2200</v>
       </c>
       <c r="E29" s="32"/>
       <c r="G29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J29" s="33"/>
       <c r="L29" s="32"/>
       <c r="M29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17">
       <c r="E30" s="32"/>
       <c r="G30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J30" s="33"/>
       <c r="L30" s="32"/>
       <c r="M30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17">
       <c r="E31" s="32"/>
       <c r="G31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J31" s="33"/>
       <c r="L31" s="32"/>
       <c r="M31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17">
       <c r="E32" s="32"/>
       <c r="G32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J32" s="33"/>
       <c r="L32" s="32"/>
       <c r="M32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="5:17">
       <c r="E33" s="32"/>
       <c r="G33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J33" s="33"/>
       <c r="L33" s="32"/>
@@ -4910,13 +4919,13 @@
         <v>42</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O34" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="P34" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="P34" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="Q34" s="33"/>
     </row>
@@ -4926,21 +4935,21 @@
         <v>42</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H35" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="I35" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="J35" s="33"/>
       <c r="L35" s="32"/>
       <c r="M35" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="N35" s="35" t="s">
         <v>321</v>
-      </c>
-      <c r="N35" s="35" t="s">
-        <v>322</v>
       </c>
       <c r="O35" s="42">
         <v>1000</v>
@@ -4953,10 +4962,10 @@
     <row r="36" spans="5:17">
       <c r="E36" s="32"/>
       <c r="F36" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>321</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>322</v>
       </c>
       <c r="H36" s="42">
         <v>1000</v>
@@ -4967,16 +4976,16 @@
       <c r="J36" s="33"/>
       <c r="L36" s="32"/>
       <c r="M36" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="N36" s="35" t="s">
         <v>325</v>
-      </c>
-      <c r="N36" s="35" t="s">
-        <v>326</v>
       </c>
       <c r="O36" s="42">
         <v>3000</v>
       </c>
       <c r="P36" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q36" s="33"/>
     </row>
@@ -4989,13 +4998,13 @@
       <c r="J37" s="39"/>
       <c r="L37" s="32"/>
       <c r="M37" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="N37" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="N37" s="35" t="s">
-        <v>324</v>
-      </c>
       <c r="O37" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P37" s="42">
         <v>2200</v>
@@ -5005,16 +5014,16 @@
     <row r="38" spans="5:17">
       <c r="L38" s="32"/>
       <c r="M38" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="N38" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="N38" s="35" t="s">
+      <c r="O38" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="O38" s="40" t="s">
-        <v>329</v>
-      </c>
       <c r="P38" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q38" s="33"/>
     </row>
